--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="860" windowWidth="13420" windowHeight="10780"/>
+    <workbookView xWindow="5805" yWindow="855" windowWidth="13425" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +38,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,6 +77,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>yy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,18 +117,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>13339993001</t>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getErrorCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验安全码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>校验手机号码格式错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678910</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验已注册的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getErrorPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验两次登录密码不一致</t>
+    <rPh sb="2" eb="3">
+      <t>liang ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>______</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@@@@@@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验用户名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验用户名不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验手机号长度小于6位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01234567890123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验手机号长度大于16位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验手机号码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验密码为空</t>
+    <rPh sb="2" eb="3">
+      <t>liang cideng lumi mabu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验密码全为数字</t>
+    <rPh sb="2" eb="3">
+      <t>liang ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng lumi mabu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验密码全为字母</t>
+    <rPh sb="2" eb="3">
+      <t>liang ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng lumi mabu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验密码全为下划线</t>
+    <rPh sb="2" eb="3">
+      <t>liang ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mi mabu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验密码包含特殊字符</t>
+    <rPh sb="2" eb="3">
+      <t>liang ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mi mabu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入有效的手机号码，以便找回密码</t>
+  </si>
+  <si>
+    <t>请输入安全码！</t>
+  </si>
+  <si>
+    <t>该手机号码已存在，登录或者查看帮助</t>
+  </si>
+  <si>
+    <t>两次输入的密码不一致</t>
+  </si>
+  <si>
+    <t>只能使用字母、数字或下划线</t>
+  </si>
+  <si>
+    <t>该用户名已存在，登录</t>
+  </si>
+  <si>
+    <t>安全码输入错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验安全码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应至少包含字母、数字、下划线中的两种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-16位字符，可以是字母、数字、下划线的组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您注册成功，诺诺镑客因你而精彩！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +480,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,13 +515,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,43 +847,1366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:IY19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:259">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:259">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:259">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="4" spans="1:259">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:259" s="6" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5"/>
+      <c r="CM5" s="5"/>
+      <c r="CN5" s="5"/>
+      <c r="CO5" s="5"/>
+      <c r="CP5" s="5"/>
+      <c r="CQ5" s="5"/>
+      <c r="CR5" s="5"/>
+      <c r="CS5" s="5"/>
+      <c r="CT5" s="5"/>
+      <c r="CU5" s="5"/>
+      <c r="CV5" s="5"/>
+      <c r="CW5" s="5"/>
+      <c r="CX5" s="5"/>
+      <c r="CY5" s="5"/>
+      <c r="CZ5" s="5"/>
+      <c r="DA5" s="5"/>
+      <c r="DB5" s="5"/>
+      <c r="DC5" s="5"/>
+      <c r="DD5" s="5"/>
+      <c r="DE5" s="5"/>
+      <c r="DF5" s="5"/>
+      <c r="DG5" s="5"/>
+      <c r="DH5" s="5"/>
+      <c r="DI5" s="5"/>
+      <c r="DJ5" s="5"/>
+      <c r="DK5" s="5"/>
+      <c r="DL5" s="5"/>
+      <c r="DM5" s="5"/>
+      <c r="DN5" s="5"/>
+      <c r="DO5" s="5"/>
+      <c r="DP5" s="5"/>
+      <c r="DQ5" s="5"/>
+      <c r="DR5" s="5"/>
+      <c r="DS5" s="5"/>
+      <c r="DT5" s="5"/>
+      <c r="DU5" s="5"/>
+      <c r="DV5" s="5"/>
+      <c r="DW5" s="5"/>
+      <c r="DX5" s="5"/>
+      <c r="DY5" s="5"/>
+      <c r="DZ5" s="5"/>
+      <c r="EA5" s="5"/>
+      <c r="EB5" s="5"/>
+      <c r="EC5" s="5"/>
+      <c r="ED5" s="5"/>
+      <c r="EE5" s="5"/>
+      <c r="EF5" s="5"/>
+      <c r="EG5" s="5"/>
+      <c r="EH5" s="5"/>
+      <c r="EI5" s="5"/>
+      <c r="EJ5" s="5"/>
+      <c r="EK5" s="5"/>
+      <c r="EL5" s="5"/>
+      <c r="EM5" s="5"/>
+      <c r="EN5" s="5"/>
+      <c r="EO5" s="5"/>
+      <c r="EP5" s="5"/>
+      <c r="EQ5" s="5"/>
+      <c r="ER5" s="5"/>
+      <c r="ES5" s="5"/>
+      <c r="ET5" s="5"/>
+      <c r="EU5" s="5"/>
+      <c r="EV5" s="5"/>
+      <c r="EW5" s="5"/>
+      <c r="EX5" s="5"/>
+      <c r="EY5" s="5"/>
+      <c r="EZ5" s="5"/>
+      <c r="FA5" s="5"/>
+      <c r="FB5" s="5"/>
+      <c r="FC5" s="5"/>
+      <c r="FD5" s="5"/>
+      <c r="FE5" s="5"/>
+      <c r="FF5" s="5"/>
+      <c r="FG5" s="5"/>
+      <c r="FH5" s="5"/>
+      <c r="FI5" s="5"/>
+      <c r="FJ5" s="5"/>
+      <c r="FK5" s="5"/>
+      <c r="FL5" s="5"/>
+      <c r="FM5" s="5"/>
+      <c r="FN5" s="5"/>
+      <c r="FO5" s="5"/>
+      <c r="FP5" s="5"/>
+      <c r="FQ5" s="5"/>
+      <c r="FR5" s="5"/>
+      <c r="FS5" s="5"/>
+      <c r="FT5" s="5"/>
+      <c r="FU5" s="5"/>
+      <c r="FV5" s="5"/>
+      <c r="FW5" s="5"/>
+      <c r="FX5" s="5"/>
+      <c r="FY5" s="5"/>
+      <c r="FZ5" s="5"/>
+      <c r="GA5" s="5"/>
+      <c r="GB5" s="5"/>
+      <c r="GC5" s="5"/>
+      <c r="GD5" s="5"/>
+      <c r="GE5" s="5"/>
+      <c r="GF5" s="5"/>
+      <c r="GG5" s="5"/>
+      <c r="GH5" s="5"/>
+      <c r="GI5" s="5"/>
+      <c r="GJ5" s="5"/>
+      <c r="GK5" s="5"/>
+      <c r="GL5" s="5"/>
+      <c r="GM5" s="5"/>
+      <c r="GN5" s="5"/>
+      <c r="GO5" s="5"/>
+      <c r="GP5" s="5"/>
+      <c r="GQ5" s="5"/>
+      <c r="GR5" s="5"/>
+      <c r="GS5" s="5"/>
+      <c r="GT5" s="5"/>
+      <c r="GU5" s="5"/>
+      <c r="GV5" s="5"/>
+      <c r="GW5" s="5"/>
+      <c r="GX5" s="5"/>
+      <c r="GY5" s="5"/>
+      <c r="GZ5" s="5"/>
+      <c r="HA5" s="5"/>
+      <c r="HB5" s="5"/>
+      <c r="HC5" s="5"/>
+      <c r="HD5" s="5"/>
+      <c r="HE5" s="5"/>
+      <c r="HF5" s="5"/>
+      <c r="HG5" s="5"/>
+      <c r="HH5" s="5"/>
+      <c r="HI5" s="5"/>
+      <c r="HJ5" s="5"/>
+      <c r="HK5" s="5"/>
+      <c r="HL5" s="5"/>
+      <c r="HM5" s="5"/>
+      <c r="HN5" s="5"/>
+      <c r="HO5" s="5"/>
+      <c r="HP5" s="5"/>
+      <c r="HQ5" s="5"/>
+      <c r="HR5" s="5"/>
+      <c r="HS5" s="5"/>
+      <c r="HT5" s="5"/>
+      <c r="HU5" s="5"/>
+      <c r="HV5" s="5"/>
+      <c r="HW5" s="5"/>
+      <c r="HX5" s="5"/>
+      <c r="HY5" s="5"/>
+      <c r="HZ5" s="5"/>
+      <c r="IA5" s="5"/>
+      <c r="IB5" s="5"/>
+      <c r="IC5" s="5"/>
+      <c r="ID5" s="5"/>
+      <c r="IE5" s="5"/>
+      <c r="IF5" s="5"/>
+      <c r="IG5" s="5"/>
+      <c r="IH5" s="5"/>
+      <c r="II5" s="5"/>
+      <c r="IJ5" s="5"/>
+      <c r="IK5" s="5"/>
+      <c r="IL5" s="5"/>
+      <c r="IM5" s="5"/>
+      <c r="IN5" s="5"/>
+      <c r="IO5" s="5"/>
+      <c r="IP5" s="5"/>
+      <c r="IQ5" s="5"/>
+      <c r="IR5" s="5"/>
+      <c r="IS5" s="5"/>
+      <c r="IT5" s="5"/>
+      <c r="IU5" s="5"/>
+      <c r="IV5" s="5"/>
+      <c r="IW5" s="5"/>
+      <c r="IX5" s="5"/>
+      <c r="IY5" s="5"/>
+    </row>
+    <row r="6" spans="1:259" s="6" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BO6" s="5"/>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="5"/>
+      <c r="CI6" s="5"/>
+      <c r="CJ6" s="5"/>
+      <c r="CK6" s="5"/>
+      <c r="CL6" s="5"/>
+      <c r="CM6" s="5"/>
+      <c r="CN6" s="5"/>
+      <c r="CO6" s="5"/>
+      <c r="CP6" s="5"/>
+      <c r="CQ6" s="5"/>
+      <c r="CR6" s="5"/>
+      <c r="CS6" s="5"/>
+      <c r="CT6" s="5"/>
+      <c r="CU6" s="5"/>
+      <c r="CV6" s="5"/>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="5"/>
+      <c r="CY6" s="5"/>
+      <c r="CZ6" s="5"/>
+      <c r="DA6" s="5"/>
+      <c r="DB6" s="5"/>
+      <c r="DC6" s="5"/>
+      <c r="DD6" s="5"/>
+      <c r="DE6" s="5"/>
+      <c r="DF6" s="5"/>
+      <c r="DG6" s="5"/>
+      <c r="DH6" s="5"/>
+      <c r="DI6" s="5"/>
+      <c r="DJ6" s="5"/>
+      <c r="DK6" s="5"/>
+      <c r="DL6" s="5"/>
+      <c r="DM6" s="5"/>
+      <c r="DN6" s="5"/>
+      <c r="DO6" s="5"/>
+      <c r="DP6" s="5"/>
+      <c r="DQ6" s="5"/>
+      <c r="DR6" s="5"/>
+      <c r="DS6" s="5"/>
+      <c r="DT6" s="5"/>
+      <c r="DU6" s="5"/>
+      <c r="DV6" s="5"/>
+      <c r="DW6" s="5"/>
+      <c r="DX6" s="5"/>
+      <c r="DY6" s="5"/>
+      <c r="DZ6" s="5"/>
+      <c r="EA6" s="5"/>
+      <c r="EB6" s="5"/>
+      <c r="EC6" s="5"/>
+      <c r="ED6" s="5"/>
+      <c r="EE6" s="5"/>
+      <c r="EF6" s="5"/>
+      <c r="EG6" s="5"/>
+      <c r="EH6" s="5"/>
+      <c r="EI6" s="5"/>
+      <c r="EJ6" s="5"/>
+      <c r="EK6" s="5"/>
+      <c r="EL6" s="5"/>
+      <c r="EM6" s="5"/>
+      <c r="EN6" s="5"/>
+      <c r="EO6" s="5"/>
+      <c r="EP6" s="5"/>
+      <c r="EQ6" s="5"/>
+      <c r="ER6" s="5"/>
+      <c r="ES6" s="5"/>
+      <c r="ET6" s="5"/>
+      <c r="EU6" s="5"/>
+      <c r="EV6" s="5"/>
+      <c r="EW6" s="5"/>
+      <c r="EX6" s="5"/>
+      <c r="EY6" s="5"/>
+      <c r="EZ6" s="5"/>
+      <c r="FA6" s="5"/>
+      <c r="FB6" s="5"/>
+      <c r="FC6" s="5"/>
+      <c r="FD6" s="5"/>
+      <c r="FE6" s="5"/>
+      <c r="FF6" s="5"/>
+      <c r="FG6" s="5"/>
+      <c r="FH6" s="5"/>
+      <c r="FI6" s="5"/>
+      <c r="FJ6" s="5"/>
+      <c r="FK6" s="5"/>
+      <c r="FL6" s="5"/>
+      <c r="FM6" s="5"/>
+      <c r="FN6" s="5"/>
+      <c r="FO6" s="5"/>
+      <c r="FP6" s="5"/>
+      <c r="FQ6" s="5"/>
+      <c r="FR6" s="5"/>
+      <c r="FS6" s="5"/>
+      <c r="FT6" s="5"/>
+      <c r="FU6" s="5"/>
+      <c r="FV6" s="5"/>
+      <c r="FW6" s="5"/>
+      <c r="FX6" s="5"/>
+      <c r="FY6" s="5"/>
+      <c r="FZ6" s="5"/>
+      <c r="GA6" s="5"/>
+      <c r="GB6" s="5"/>
+      <c r="GC6" s="5"/>
+      <c r="GD6" s="5"/>
+      <c r="GE6" s="5"/>
+      <c r="GF6" s="5"/>
+      <c r="GG6" s="5"/>
+      <c r="GH6" s="5"/>
+      <c r="GI6" s="5"/>
+      <c r="GJ6" s="5"/>
+      <c r="GK6" s="5"/>
+      <c r="GL6" s="5"/>
+      <c r="GM6" s="5"/>
+      <c r="GN6" s="5"/>
+      <c r="GO6" s="5"/>
+      <c r="GP6" s="5"/>
+      <c r="GQ6" s="5"/>
+      <c r="GR6" s="5"/>
+      <c r="GS6" s="5"/>
+      <c r="GT6" s="5"/>
+      <c r="GU6" s="5"/>
+      <c r="GV6" s="5"/>
+      <c r="GW6" s="5"/>
+      <c r="GX6" s="5"/>
+      <c r="GY6" s="5"/>
+      <c r="GZ6" s="5"/>
+      <c r="HA6" s="5"/>
+      <c r="HB6" s="5"/>
+      <c r="HC6" s="5"/>
+      <c r="HD6" s="5"/>
+      <c r="HE6" s="5"/>
+      <c r="HF6" s="5"/>
+      <c r="HG6" s="5"/>
+      <c r="HH6" s="5"/>
+      <c r="HI6" s="5"/>
+      <c r="HJ6" s="5"/>
+      <c r="HK6" s="5"/>
+      <c r="HL6" s="5"/>
+      <c r="HM6" s="5"/>
+      <c r="HN6" s="5"/>
+      <c r="HO6" s="5"/>
+      <c r="HP6" s="5"/>
+      <c r="HQ6" s="5"/>
+      <c r="HR6" s="5"/>
+      <c r="HS6" s="5"/>
+      <c r="HT6" s="5"/>
+      <c r="HU6" s="5"/>
+      <c r="HV6" s="5"/>
+      <c r="HW6" s="5"/>
+      <c r="HX6" s="5"/>
+      <c r="HY6" s="5"/>
+      <c r="HZ6" s="5"/>
+      <c r="IA6" s="5"/>
+      <c r="IB6" s="5"/>
+      <c r="IC6" s="5"/>
+      <c r="ID6" s="5"/>
+      <c r="IE6" s="5"/>
+      <c r="IF6" s="5"/>
+      <c r="IG6" s="5"/>
+      <c r="IH6" s="5"/>
+      <c r="II6" s="5"/>
+      <c r="IJ6" s="5"/>
+      <c r="IK6" s="5"/>
+      <c r="IL6" s="5"/>
+      <c r="IM6" s="5"/>
+      <c r="IN6" s="5"/>
+      <c r="IO6" s="5"/>
+      <c r="IP6" s="5"/>
+      <c r="IQ6" s="5"/>
+      <c r="IR6" s="5"/>
+      <c r="IS6" s="5"/>
+      <c r="IT6" s="5"/>
+      <c r="IU6" s="5"/>
+      <c r="IV6" s="5"/>
+      <c r="IW6" s="5"/>
+      <c r="IX6" s="5"/>
+      <c r="IY6" s="5"/>
+    </row>
+    <row r="7" spans="1:259" s="6" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+      <c r="BX7" s="5"/>
+      <c r="BY7" s="5"/>
+      <c r="BZ7" s="5"/>
+      <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
+      <c r="CH7" s="5"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
+      <c r="CU7" s="5"/>
+      <c r="CV7" s="5"/>
+      <c r="CW7" s="5"/>
+      <c r="CX7" s="5"/>
+      <c r="CY7" s="5"/>
+      <c r="CZ7" s="5"/>
+      <c r="DA7" s="5"/>
+      <c r="DB7" s="5"/>
+      <c r="DC7" s="5"/>
+      <c r="DD7" s="5"/>
+      <c r="DE7" s="5"/>
+      <c r="DF7" s="5"/>
+      <c r="DG7" s="5"/>
+      <c r="DH7" s="5"/>
+      <c r="DI7" s="5"/>
+      <c r="DJ7" s="5"/>
+      <c r="DK7" s="5"/>
+      <c r="DL7" s="5"/>
+      <c r="DM7" s="5"/>
+      <c r="DN7" s="5"/>
+      <c r="DO7" s="5"/>
+      <c r="DP7" s="5"/>
+      <c r="DQ7" s="5"/>
+      <c r="DR7" s="5"/>
+      <c r="DS7" s="5"/>
+      <c r="DT7" s="5"/>
+      <c r="DU7" s="5"/>
+      <c r="DV7" s="5"/>
+      <c r="DW7" s="5"/>
+      <c r="DX7" s="5"/>
+      <c r="DY7" s="5"/>
+      <c r="DZ7" s="5"/>
+      <c r="EA7" s="5"/>
+      <c r="EB7" s="5"/>
+      <c r="EC7" s="5"/>
+      <c r="ED7" s="5"/>
+      <c r="EE7" s="5"/>
+      <c r="EF7" s="5"/>
+      <c r="EG7" s="5"/>
+      <c r="EH7" s="5"/>
+      <c r="EI7" s="5"/>
+      <c r="EJ7" s="5"/>
+      <c r="EK7" s="5"/>
+      <c r="EL7" s="5"/>
+      <c r="EM7" s="5"/>
+      <c r="EN7" s="5"/>
+      <c r="EO7" s="5"/>
+      <c r="EP7" s="5"/>
+      <c r="EQ7" s="5"/>
+      <c r="ER7" s="5"/>
+      <c r="ES7" s="5"/>
+      <c r="ET7" s="5"/>
+      <c r="EU7" s="5"/>
+      <c r="EV7" s="5"/>
+      <c r="EW7" s="5"/>
+      <c r="EX7" s="5"/>
+      <c r="EY7" s="5"/>
+      <c r="EZ7" s="5"/>
+      <c r="FA7" s="5"/>
+      <c r="FB7" s="5"/>
+      <c r="FC7" s="5"/>
+      <c r="FD7" s="5"/>
+      <c r="FE7" s="5"/>
+      <c r="FF7" s="5"/>
+      <c r="FG7" s="5"/>
+      <c r="FH7" s="5"/>
+      <c r="FI7" s="5"/>
+      <c r="FJ7" s="5"/>
+      <c r="FK7" s="5"/>
+      <c r="FL7" s="5"/>
+      <c r="FM7" s="5"/>
+      <c r="FN7" s="5"/>
+      <c r="FO7" s="5"/>
+      <c r="FP7" s="5"/>
+      <c r="FQ7" s="5"/>
+      <c r="FR7" s="5"/>
+      <c r="FS7" s="5"/>
+      <c r="FT7" s="5"/>
+      <c r="FU7" s="5"/>
+      <c r="FV7" s="5"/>
+      <c r="FW7" s="5"/>
+      <c r="FX7" s="5"/>
+      <c r="FY7" s="5"/>
+      <c r="FZ7" s="5"/>
+      <c r="GA7" s="5"/>
+      <c r="GB7" s="5"/>
+      <c r="GC7" s="5"/>
+      <c r="GD7" s="5"/>
+      <c r="GE7" s="5"/>
+      <c r="GF7" s="5"/>
+      <c r="GG7" s="5"/>
+      <c r="GH7" s="5"/>
+      <c r="GI7" s="5"/>
+      <c r="GJ7" s="5"/>
+      <c r="GK7" s="5"/>
+      <c r="GL7" s="5"/>
+      <c r="GM7" s="5"/>
+      <c r="GN7" s="5"/>
+      <c r="GO7" s="5"/>
+      <c r="GP7" s="5"/>
+      <c r="GQ7" s="5"/>
+      <c r="GR7" s="5"/>
+      <c r="GS7" s="5"/>
+      <c r="GT7" s="5"/>
+      <c r="GU7" s="5"/>
+      <c r="GV7" s="5"/>
+      <c r="GW7" s="5"/>
+      <c r="GX7" s="5"/>
+      <c r="GY7" s="5"/>
+      <c r="GZ7" s="5"/>
+      <c r="HA7" s="5"/>
+      <c r="HB7" s="5"/>
+      <c r="HC7" s="5"/>
+      <c r="HD7" s="5"/>
+      <c r="HE7" s="5"/>
+      <c r="HF7" s="5"/>
+      <c r="HG7" s="5"/>
+      <c r="HH7" s="5"/>
+      <c r="HI7" s="5"/>
+      <c r="HJ7" s="5"/>
+      <c r="HK7" s="5"/>
+      <c r="HL7" s="5"/>
+      <c r="HM7" s="5"/>
+      <c r="HN7" s="5"/>
+      <c r="HO7" s="5"/>
+      <c r="HP7" s="5"/>
+      <c r="HQ7" s="5"/>
+      <c r="HR7" s="5"/>
+      <c r="HS7" s="5"/>
+      <c r="HT7" s="5"/>
+      <c r="HU7" s="5"/>
+      <c r="HV7" s="5"/>
+      <c r="HW7" s="5"/>
+      <c r="HX7" s="5"/>
+      <c r="HY7" s="5"/>
+      <c r="HZ7" s="5"/>
+      <c r="IA7" s="5"/>
+      <c r="IB7" s="5"/>
+      <c r="IC7" s="5"/>
+      <c r="ID7" s="5"/>
+      <c r="IE7" s="5"/>
+      <c r="IF7" s="5"/>
+      <c r="IG7" s="5"/>
+      <c r="IH7" s="5"/>
+      <c r="II7" s="5"/>
+      <c r="IJ7" s="5"/>
+      <c r="IK7" s="5"/>
+      <c r="IL7" s="5"/>
+      <c r="IM7" s="5"/>
+      <c r="IN7" s="5"/>
+      <c r="IO7" s="5"/>
+      <c r="IP7" s="5"/>
+      <c r="IQ7" s="5"/>
+      <c r="IR7" s="5"/>
+      <c r="IS7" s="5"/>
+      <c r="IT7" s="5"/>
+      <c r="IU7" s="5"/>
+      <c r="IV7" s="5"/>
+      <c r="IW7" s="5"/>
+      <c r="IX7" s="5"/>
+      <c r="IY7" s="5"/>
+    </row>
+    <row r="8" spans="1:259">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:259">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:259">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:259">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:259">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:259">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:259">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:259">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:259">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -467,9 +2224,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="123">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,10 +187,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校验已注册的手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,12 +452,120 @@
     <t>恭喜您注册成功，诺诺镑客因你而精彩！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全码输入空值-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全码输入错误-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入空值-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入非法-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入不合理-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码已存在-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密码为空-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全为数字-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全为字母-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全为下划线-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全为@-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名输入空值-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名非法-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名已存在-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名长度小于6-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名长度大于16-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +591,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -531,10 +639,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -543,9 +652,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -847,182 +958,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY19"/>
+  <dimension ref="A1:IF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.875" customWidth="1"/>
-    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:259">
+    <row r="1" spans="1:240">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:240">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:240">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:240">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:259">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    <row r="5" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:259">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:259">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:259" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -1251,59 +1392,44 @@
       <c r="ID5" s="5"/>
       <c r="IE5" s="5"/>
       <c r="IF5" s="5"/>
-      <c r="IG5" s="5"/>
-      <c r="IH5" s="5"/>
-      <c r="II5" s="5"/>
-      <c r="IJ5" s="5"/>
-      <c r="IK5" s="5"/>
-      <c r="IL5" s="5"/>
-      <c r="IM5" s="5"/>
-      <c r="IN5" s="5"/>
-      <c r="IO5" s="5"/>
-      <c r="IP5" s="5"/>
-      <c r="IQ5" s="5"/>
-      <c r="IR5" s="5"/>
-      <c r="IS5" s="5"/>
-      <c r="IT5" s="5"/>
-      <c r="IU5" s="5"/>
-      <c r="IV5" s="5"/>
-      <c r="IW5" s="5"/>
-      <c r="IX5" s="5"/>
-      <c r="IY5" s="5"/>
     </row>
-    <row r="6" spans="1:259" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="L6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1532,59 +1658,44 @@
       <c r="ID6" s="5"/>
       <c r="IE6" s="5"/>
       <c r="IF6" s="5"/>
-      <c r="IG6" s="5"/>
-      <c r="IH6" s="5"/>
-      <c r="II6" s="5"/>
-      <c r="IJ6" s="5"/>
-      <c r="IK6" s="5"/>
-      <c r="IL6" s="5"/>
-      <c r="IM6" s="5"/>
-      <c r="IN6" s="5"/>
-      <c r="IO6" s="5"/>
-      <c r="IP6" s="5"/>
-      <c r="IQ6" s="5"/>
-      <c r="IR6" s="5"/>
-      <c r="IS6" s="5"/>
-      <c r="IT6" s="5"/>
-      <c r="IU6" s="5"/>
-      <c r="IV6" s="5"/>
-      <c r="IW6" s="5"/>
-      <c r="IX6" s="5"/>
-      <c r="IY6" s="5"/>
     </row>
-    <row r="7" spans="1:259" s="6" customFormat="1" ht="15.95" customHeight="1">
+    <row r="7" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1813,406 +1924,463 @@
       <c r="ID7" s="5"/>
       <c r="IE7" s="5"/>
       <c r="IF7" s="5"/>
-      <c r="IG7" s="5"/>
-      <c r="IH7" s="5"/>
-      <c r="II7" s="5"/>
-      <c r="IJ7" s="5"/>
-      <c r="IK7" s="5"/>
-      <c r="IL7" s="5"/>
-      <c r="IM7" s="5"/>
-      <c r="IN7" s="5"/>
-      <c r="IO7" s="5"/>
-      <c r="IP7" s="5"/>
-      <c r="IQ7" s="5"/>
-      <c r="IR7" s="5"/>
-      <c r="IS7" s="5"/>
-      <c r="IT7" s="5"/>
-      <c r="IU7" s="5"/>
-      <c r="IV7" s="5"/>
-      <c r="IW7" s="5"/>
-      <c r="IX7" s="5"/>
-      <c r="IY7" s="5"/>
     </row>
-    <row r="8" spans="1:259">
+    <row r="8" spans="1:240">
       <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:240">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:240">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:240">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:240">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:240">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:240">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:240">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:240">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
-        <v>41</v>
+      <c r="L18" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:259">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:259">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:259">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:259">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:259">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:259">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:259">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:259">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="L19" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2" display="用户名全为@-注册失败"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,18 +450,6 @@
   </si>
   <si>
     <t>恭喜您注册成功，诺诺镑客因你而精彩！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -961,7 +949,7 @@
   <dimension ref="A1:IF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -984,10 +972,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -1022,10 +1010,10 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1060,10 +1048,10 @@
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -1098,10 +1086,10 @@
         <v>96</v>
       </c>
       <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1131,13 +1119,13 @@
     </row>
     <row r="5" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
@@ -1394,14 +1382,14 @@
       <c r="IF5" s="5"/>
     </row>
     <row r="6" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>99</v>
+      <c r="A6" t="s">
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>33</v>
@@ -1664,10 +1652,10 @@
         <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>38</v>
@@ -1930,13 +1918,13 @@
         <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -1968,10 +1956,10 @@
         <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
@@ -2006,10 +1994,10 @@
         <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -2038,10 +2026,10 @@
         <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
@@ -2076,10 +2064,10 @@
         <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>40</v>
@@ -2114,10 +2102,10 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
@@ -2152,10 +2140,10 @@
         <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>40</v>
@@ -2190,10 +2178,10 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>64</v>
@@ -2226,10 +2214,10 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>70</v>
@@ -2264,10 +2252,10 @@
         <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -2299,13 +2287,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -2340,10 +2328,10 @@
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>40</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="121">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,103 +449,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全码输入空值-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全码输入错误-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入空值-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入非法-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码输入不合理-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码已存在-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密码为空-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全为数字-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全为字母-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全为下划线-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码全为@-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名输入空值-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名非法-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名已存在-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名长度小于6-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名长度大于16-注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>恭喜您注册成功，诺诺镑客因你而精彩！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全码输入空值-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全码输入错误-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码输入空值-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码输入非法-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码输入不合理-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码已存在-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两次密码不一致-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置密码为空-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码全为数字-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码全为字母-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码全为下划线-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码全为@-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名输入空值-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名非法-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名已存在-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名长度小于6-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名长度大于16-注册失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -972,10 +976,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -1007,13 +1011,13 @@
     </row>
     <row r="2" spans="1:240">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1034,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -1045,13 +1049,13 @@
     </row>
     <row r="3" spans="1:240">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -1083,13 +1087,13 @@
     </row>
     <row r="4" spans="1:240">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1119,13 +1123,13 @@
     </row>
     <row r="5" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
@@ -1383,13 +1387,13 @@
     </row>
     <row r="6" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>33</v>
@@ -1649,13 +1653,13 @@
     </row>
     <row r="7" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>38</v>
@@ -1915,16 +1919,16 @@
     </row>
     <row r="8" spans="1:240">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -1953,13 +1957,13 @@
     </row>
     <row r="9" spans="1:240">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
@@ -1991,13 +1995,13 @@
     </row>
     <row r="10" spans="1:240">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -2023,13 +2027,13 @@
     </row>
     <row r="11" spans="1:240">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
@@ -2061,13 +2065,13 @@
     </row>
     <row r="12" spans="1:240">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>40</v>
@@ -2099,13 +2103,13 @@
     </row>
     <row r="13" spans="1:240">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
@@ -2137,13 +2141,13 @@
     </row>
     <row r="14" spans="1:240">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>40</v>
@@ -2175,13 +2179,13 @@
     </row>
     <row r="15" spans="1:240">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>64</v>
@@ -2211,13 +2215,13 @@
     </row>
     <row r="16" spans="1:240">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>70</v>
@@ -2249,13 +2253,13 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -2287,13 +2291,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -2325,13 +2329,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>40</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,10 +542,6 @@
   </si>
   <si>
     <t>用户名长度大于16-注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -952,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1038,7 +1034,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -1049,7 +1045,7 @@
     </row>
     <row r="3" spans="1:240">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -1087,7 +1083,7 @@
     </row>
     <row r="4" spans="1:240">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -1123,7 +1119,7 @@
     </row>
     <row r="5" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -1387,7 +1383,7 @@
     </row>
     <row r="6" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -1653,7 +1649,7 @@
     </row>
     <row r="7" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>99</v>
@@ -1919,7 +1915,7 @@
     </row>
     <row r="8" spans="1:240">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>99</v>
@@ -1957,7 +1953,7 @@
     </row>
     <row r="9" spans="1:240">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -1995,7 +1991,7 @@
     </row>
     <row r="10" spans="1:240">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -2027,7 +2023,7 @@
     </row>
     <row r="11" spans="1:240">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -2065,7 +2061,7 @@
     </row>
     <row r="12" spans="1:240">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -2103,7 +2099,7 @@
     </row>
     <row r="13" spans="1:240">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
@@ -2141,7 +2137,7 @@
     </row>
     <row r="14" spans="1:240">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -2179,7 +2175,7 @@
     </row>
     <row r="15" spans="1:240">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -2215,7 +2211,7 @@
     </row>
     <row r="16" spans="1:240">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>99</v>
@@ -2253,7 +2249,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
@@ -2291,7 +2287,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -2329,7 +2325,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -949,7 +949,7 @@
   <dimension ref="A1:IF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +123,6 @@
   <si>
     <t>校验安全码为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
@@ -168,10 +156,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -192,10 +176,6 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnregisterMobile()}</t>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>it789123</t>
@@ -234,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abcdef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +299,6 @@
   </si>
   <si>
     <t>校验用户名不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -546,6 +510,10 @@
   </si>
   <si>
     <t>恭喜您注册成功，诺诺镑客因你而精彩！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,16 +917,16 @@
   <dimension ref="A1:IF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="39.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.875" bestFit="1" customWidth="1"/>
@@ -972,10 +940,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -996,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -1007,40 +975,40 @@
     </row>
     <row r="2" spans="1:240">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:240">
@@ -1048,37 +1016,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:240">
@@ -1086,35 +1054,35 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
@@ -1122,35 +1090,35 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="J5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1386,37 +1354,37 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1652,37 +1620,37 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1918,37 +1886,37 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:240">
@@ -1956,37 +1924,37 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:240">
@@ -1994,31 +1962,31 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:240">
@@ -2026,37 +1994,37 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:240">
@@ -2064,37 +2032,37 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:240">
@@ -2102,37 +2070,37 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
         <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:240">
@@ -2140,37 +2108,37 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:240">
@@ -2178,35 +2146,35 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:240">
@@ -2214,37 +2182,37 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2252,37 +2220,37 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2290,37 +2258,37 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
         <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2328,37 +2296,37 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,14 +74,6 @@
   </si>
   <si>
     <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,9 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-  </si>
-  <si>
     <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,10 +272,6 @@
   </si>
   <si>
     <t>校验用户名为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号码已存在-注册失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,6 +491,18 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getNormalMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getNormalUserName()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +906,7 @@
   <dimension ref="A1:IF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -940,10 +929,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -964,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -975,40 +964,40 @@
     </row>
     <row r="2" spans="1:240">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:240">
@@ -1016,37 +1005,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:240">
@@ -1054,35 +1043,35 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:240" s="6" customFormat="1" ht="15.95" customHeight="1">
@@ -1090,35 +1079,35 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1354,37 +1343,37 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1620,37 +1609,37 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1886,37 +1875,37 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:240">
@@ -1924,37 +1913,37 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="L9" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:240">
@@ -1962,31 +1951,31 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:240">
@@ -1994,37 +1983,37 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:240">
@@ -2032,37 +2021,37 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" t="s">
-        <v>53</v>
-      </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:240">
@@ -2070,37 +2059,37 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
         <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:240">
@@ -2108,37 +2097,37 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:240">
@@ -2146,35 +2135,35 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
         <v>57</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:240">
@@ -2182,37 +2171,37 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2220,37 +2209,37 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2258,37 +2247,37 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2296,37 +2285,37 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" t="s">
         <v>63</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="110">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,11 +498,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getNormalMobileNum()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getNormalUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUsedUserName()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +910,7 @@
   <dimension ref="A1:IF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1881,7 +1885,7 @@
         <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>105</v>
@@ -2215,10 +2219,10 @@
         <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/Register.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,10 +495,6 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getNormalUserName()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1885,7 +1881,7 @@
         <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>105</v>
@@ -2219,10 +2215,10 @@
         <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
